--- a/Radiomics_gliomas_article/data/S.xlsx
+++ b/Radiomics_gliomas_article/data/S.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tzaragori\Desktop\DOPA\Etudes\DOPA_Texture_Diag_init\Données\version_Article_propre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tzaragori\Desktop\DOPA\Code_git\Sklearn_NestedCV\master\Radiomics_gliomas_article\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0CACDD-B4F9-4608-B4E2-59CF256C12AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75E19C6-936B-408D-BBEB-DC7998B0483F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nestle" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -444,11 +444,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection sqref="A1:A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,11 +480,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.540569163817251</v>
+        <v>1.778899356556545</v>
       </c>
       <c r="C2">
         <v>2.197180505183622</v>
@@ -493,7 +493,7 @@
         <v>1.874677529433826</v>
       </c>
       <c r="E2">
-        <v>0.97048408259981189</v>
+        <v>1.1206205801286351</v>
       </c>
       <c r="F2">
         <v>1.384117478760768</v>
@@ -502,15 +502,15 @@
         <v>1.1809561979126351</v>
       </c>
       <c r="H2">
-        <v>28.128949468920609</v>
+        <v>5.8079583284399883</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.9520938230402569</v>
+        <v>1.9081445645490061</v>
       </c>
       <c r="C3">
         <v>2.622997488205149</v>
@@ -519,7 +519,7 @@
         <v>2.3238168754315871</v>
       </c>
       <c r="E3">
-        <v>1.233336334921997</v>
+        <v>1.205569115564826</v>
       </c>
       <c r="F3">
         <v>1.6572144588697</v>
@@ -528,15 +528,15 @@
         <v>1.4681916178142509</v>
       </c>
       <c r="H3">
-        <v>13.566190486725141</v>
+        <v>15.698632751226169</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.3161806674568708</v>
+        <v>2.1016154982721451</v>
       </c>
       <c r="C4">
         <v>2.972844170748862</v>
@@ -545,7 +545,7 @@
         <v>2.6441637948526031</v>
       </c>
       <c r="E4">
-        <v>1.4264127840474741</v>
+        <v>1.2942734804790481</v>
       </c>
       <c r="F4">
         <v>1.830816995287847</v>
@@ -554,15 +554,15 @@
         <v>1.628400190488795</v>
       </c>
       <c r="H4">
-        <v>3.7719581764038299</v>
+        <v>5.8722530700832358</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.693476862684808</v>
+        <v>2.0342794875528751</v>
       </c>
       <c r="C5">
         <v>4.2222714354083326</v>
@@ -571,7 +571,7 @@
         <v>3.2983767278834688</v>
       </c>
       <c r="E5">
-        <v>1.589145316821196</v>
+        <v>1.200220341795589</v>
       </c>
       <c r="F5">
         <v>2.4911306909237201</v>
@@ -580,15 +580,15 @@
         <v>1.9460348825878919</v>
       </c>
       <c r="H5">
-        <v>8.722653282933857</v>
+        <v>51.510803846514797</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4.4984894213492206</v>
+        <v>3.2557751058332349</v>
       </c>
       <c r="C6">
         <v>8.1562428620330341</v>
@@ -597,7 +597,7 @@
         <v>6.7671136491148811</v>
       </c>
       <c r="E6">
-        <v>2.715310750091684</v>
+        <v>1.9652021638184449</v>
       </c>
       <c r="F6">
         <v>4.923149050552718</v>
@@ -606,15 +606,15 @@
         <v>4.0846636987361604</v>
       </c>
       <c r="H6">
-        <v>17.209559179842479</v>
+        <v>40.312803010315939</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.8727120172625979</v>
+        <v>1.7882818138434251</v>
       </c>
       <c r="C7">
         <v>2.113747504647181</v>
@@ -623,7 +623,7 @@
         <v>1.8221097579070471</v>
       </c>
       <c r="E7">
-        <v>1.1359067574373169</v>
+        <v>1.0846950186800499</v>
       </c>
       <c r="F7">
         <v>1.282108542003509</v>
@@ -632,15 +632,15 @@
         <v>1.105213598097428</v>
       </c>
       <c r="H7">
-        <v>0.93227375382708311</v>
+        <v>1.5109264286163071</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3.801471048359887</v>
+        <v>2.503385705874742</v>
       </c>
       <c r="C8">
         <v>6.6693815366519784</v>
@@ -649,7 +649,7 @@
         <v>5.174586834507374</v>
       </c>
       <c r="E8">
-        <v>2.5268292243947008</v>
+        <v>1.663994827545878</v>
       </c>
       <c r="F8">
         <v>4.4331228519342476</v>
@@ -658,41 +658,41 @@
         <v>3.4395361877719761</v>
       </c>
       <c r="H8">
-        <v>20.681475228577821</v>
+        <v>93.088070109147935</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.2835934394222082</v>
+        <v>1.716766981362067</v>
       </c>
       <c r="C9">
-        <v>2.9301315670297599</v>
+        <v>2.1438793874783011</v>
       </c>
       <c r="D9">
-        <v>2.2409047928546451</v>
+        <v>1.8025573378284889</v>
       </c>
       <c r="E9">
-        <v>1.2061602041743551</v>
+        <v>0.90677087129983469</v>
       </c>
       <c r="F9">
-        <v>1.5476520593090159</v>
+        <v>1.1323653129693221</v>
       </c>
       <c r="G9">
-        <v>1.183612693846559</v>
+        <v>0.95208406588402983</v>
       </c>
       <c r="H9">
-        <v>1.232315881495569</v>
+        <v>6.1294320366562243</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.9295622882578101</v>
+        <v>1.864672083938413</v>
       </c>
       <c r="C10">
         <v>2.6994766978787368</v>
@@ -701,7 +701,7 @@
         <v>2.16409319512002</v>
       </c>
       <c r="E10">
-        <v>1.260646428318787</v>
+        <v>1.2182515262179681</v>
       </c>
       <c r="F10">
         <v>1.763656803524726</v>
@@ -710,15 +710,15 @@
         <v>1.4138731740245001</v>
       </c>
       <c r="H10">
-        <v>3.4504844681875948</v>
+        <v>4.5006319150272978</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.8793456894367799</v>
+        <v>1.8534419747376321</v>
       </c>
       <c r="C11">
         <v>2.4375644640115448</v>
@@ -727,7 +727,7 @@
         <v>1.888641678510075</v>
       </c>
       <c r="E11">
-        <v>1.2242024440786281</v>
+        <v>1.2073288103327711</v>
       </c>
       <c r="F11">
         <v>1.587825162350222</v>
@@ -736,15 +736,15 @@
         <v>1.230257834849799</v>
       </c>
       <c r="H11">
-        <v>1.9502738298451621</v>
+        <v>2.1753054255965272</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.4075442266669269</v>
+        <v>1.672843233788103</v>
       </c>
       <c r="C12">
         <v>1.9319417154879841</v>
@@ -753,7 +753,7 @@
         <v>1.6777102032386051</v>
       </c>
       <c r="E12">
-        <v>0.99408740129650852</v>
+        <v>1.181456576317139</v>
       </c>
       <c r="F12">
         <v>1.3644465893292519</v>
@@ -762,15 +762,15 @@
         <v>1.184893905618468</v>
       </c>
       <c r="H12">
-        <v>47.781708831206473</v>
+        <v>1.414484316151436</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.7033961076397131</v>
+        <v>1.8221235277041949</v>
       </c>
       <c r="C13">
         <v>2.372345201420262</v>
@@ -779,7 +779,7 @@
         <v>2.0463921725022032</v>
       </c>
       <c r="E13">
-        <v>1.0241145871785751</v>
+        <v>1.0954958015894689</v>
       </c>
       <c r="F13">
         <v>1.4262996819712479</v>
@@ -788,15 +788,15 @@
         <v>1.230330435503632</v>
       </c>
       <c r="H13">
-        <v>40.034192463195197</v>
+        <v>26.146528268253821</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.753751172480178</v>
+        <v>1.77686382028201</v>
       </c>
       <c r="C14">
         <v>2.193349634737177</v>
@@ -805,7 +805,7 @@
         <v>1.8418501280569131</v>
       </c>
       <c r="E14">
-        <v>1.1446947666328871</v>
+        <v>1.159780673571652</v>
       </c>
       <c r="F14">
         <v>1.431626041184116</v>
@@ -814,15 +814,15 @@
         <v>1.2021980287700651</v>
       </c>
       <c r="H14">
-        <v>2.7646738906596262</v>
+        <v>2.5610738754560098</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.6245170519032761</v>
+        <v>1.712053586077994</v>
       </c>
       <c r="C15">
         <v>1.843253730417598</v>
@@ -831,7 +831,7 @@
         <v>1.6658802699777531</v>
       </c>
       <c r="E15">
-        <v>1.048319955829276</v>
+        <v>1.104808310649545</v>
       </c>
       <c r="F15">
         <v>1.189473306537244</v>
@@ -840,15 +840,15 @@
         <v>1.075012126831107</v>
       </c>
       <c r="H15">
-        <v>1.918126459023539</v>
+        <v>1.018000076018079</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2.8128207939126328</v>
+        <v>2.1598286049863118</v>
       </c>
       <c r="C16">
         <v>4.2534783825166853</v>
@@ -857,7 +857,7 @@
         <v>2.9753533863458168</v>
       </c>
       <c r="E16">
-        <v>1.732389701188489</v>
+        <v>1.3302179931647671</v>
       </c>
       <c r="F16">
         <v>2.6196770729392771</v>
@@ -866,15 +866,15 @@
         <v>1.8324919863564859</v>
       </c>
       <c r="H16">
-        <v>1.9395580395712879</v>
+        <v>6.0437057144652284</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1.306436886028848</v>
+        <v>1.699007551080626</v>
       </c>
       <c r="C17">
         <v>1.8286567603731201</v>
@@ -883,7 +883,7 @@
         <v>1.543977644556485</v>
       </c>
       <c r="E17">
-        <v>0.79179965973671562</v>
+        <v>1.029727203221392</v>
       </c>
       <c r="F17">
         <v>1.108304439443627</v>
@@ -892,15 +892,15 @@
         <v>0.93576734297283537</v>
       </c>
       <c r="H17">
-        <v>18.366864529420919</v>
+        <v>0.61080004561084755</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.6542500586829421</v>
+        <v>1.707269058823949</v>
       </c>
       <c r="C18">
         <v>2.0009894972949378</v>
@@ -909,7 +909,7 @@
         <v>1.605947306672225</v>
       </c>
       <c r="E18">
-        <v>0.87663863996658142</v>
+        <v>0.90473505981075253</v>
       </c>
       <c r="F18">
         <v>1.0603866702550631</v>
@@ -918,15 +918,15 @@
         <v>0.85104150692913061</v>
       </c>
       <c r="H18">
-        <v>1.2751790425910681</v>
+        <v>0.83583164136221244</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2.8897875007461602</v>
+        <v>2.3871440991875819</v>
       </c>
       <c r="C19">
         <v>4.6665794521390724</v>
@@ -935,7 +935,7 @@
         <v>3.5856967642436151</v>
       </c>
       <c r="E19">
-        <v>1.6568288790017409</v>
+        <v>1.3686436393165089</v>
       </c>
       <c r="F19">
         <v>2.6755336163865899</v>
@@ -944,15 +944,15 @@
         <v>2.055821041792155</v>
       </c>
       <c r="H19">
-        <v>3.3861897265443481</v>
+        <v>6.2580215199427176</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1.4819848308838099</v>
+        <v>1.7305119335517929</v>
       </c>
       <c r="C20">
         <v>1.837852883935954</v>
@@ -961,7 +961,7 @@
         <v>1.309057598366808</v>
       </c>
       <c r="E20">
-        <v>0.89196029998470749</v>
+        <v>1.0415409869326731</v>
       </c>
       <c r="F20">
         <v>1.1061461463850819</v>
@@ -970,15 +970,15 @@
         <v>0.78788080944133709</v>
       </c>
       <c r="H20">
-        <v>0.65366320670634559</v>
+        <v>0.12858948328649419</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>4.589769189232209</v>
+        <v>2.7672379015480808</v>
       </c>
       <c r="C21">
         <v>7.7194971253353737</v>
@@ -987,7 +987,7 @@
         <v>6.7502214751805942</v>
       </c>
       <c r="E21">
-        <v>3.0542712163629688</v>
+        <v>1.8414640743494179</v>
       </c>
       <c r="F21">
         <v>5.1369550194424098</v>
@@ -996,15 +996,15 @@
         <v>4.4919485720736532</v>
       </c>
       <c r="H21">
-        <v>11.026548191816881</v>
+        <v>42.927455837141324</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2.7546927165984032</v>
+        <v>2.277749715137948</v>
       </c>
       <c r="C22">
         <v>4.1664661556903617</v>
@@ -1013,7 +1013,7 @@
         <v>3.5855038233728291</v>
       </c>
       <c r="E22">
-        <v>1.5539072541168959</v>
+        <v>1.284866288021463</v>
       </c>
       <c r="F22">
         <v>2.3502810111446828</v>
@@ -1022,15 +1022,15 @@
         <v>2.0225633034245831</v>
       </c>
       <c r="H22">
-        <v>7.7260847874635266</v>
+        <v>15.912948556703659</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>3.2397467226113759</v>
+        <v>2.6719135603226301</v>
       </c>
       <c r="C23">
         <v>5.3559839617358387</v>
@@ -1039,7 +1039,7 @@
         <v>4.9145055526340631</v>
       </c>
       <c r="E23">
-        <v>2.153397428598089</v>
+        <v>1.775969630612787</v>
       </c>
       <c r="F23">
         <v>3.5600196800316568</v>
@@ -1048,15 +1048,15 @@
         <v>3.266577459901852</v>
       </c>
       <c r="H23">
-        <v>27.218107295641271</v>
+        <v>47.856719363123602</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2.6194442951945458</v>
+        <v>2.3745890234022551</v>
       </c>
       <c r="C24">
         <v>4.1076214941798836</v>
@@ -1065,7 +1065,7 @@
         <v>3.7556654703382422</v>
       </c>
       <c r="E24">
-        <v>1.3616482117069839</v>
+        <v>1.2343667331221391</v>
       </c>
       <c r="F24">
         <v>2.1352374135918799</v>
@@ -1074,15 +1074,15 @@
         <v>1.952282467253585</v>
       </c>
       <c r="H24">
-        <v>17.145264438199231</v>
+        <v>23.885496520466301</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.7646571366428421</v>
+        <v>1.924919394145727</v>
       </c>
       <c r="C25">
         <v>3.0723489772704222</v>
@@ -1091,7 +1091,7 @@
         <v>2.5647924665230688</v>
       </c>
       <c r="E25">
-        <v>1.10829297714794</v>
+        <v>1.2089456936468681</v>
       </c>
       <c r="F25">
         <v>1.9295888839541939</v>
@@ -1100,15 +1100,15 @@
         <v>1.610817999408787</v>
       </c>
       <c r="H25">
-        <v>19.98494886077598</v>
+        <v>19.191980380509261</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2.2957718163713889</v>
+        <v>1.9760380976009</v>
       </c>
       <c r="C26">
         <v>3.1891278921874529</v>
@@ -1117,7 +1117,7 @@
         <v>2.5535020188833242</v>
       </c>
       <c r="E26">
-        <v>1.363687868668704</v>
+        <v>1.173766121924378</v>
       </c>
       <c r="F26">
         <v>1.894341148016552</v>
@@ -1126,15 +1126,15 @@
         <v>1.516779542696902</v>
       </c>
       <c r="H26">
-        <v>6.0329899241913534</v>
+        <v>15.36644325273606</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1.5944494430387159</v>
+        <v>1.7532197065999231</v>
       </c>
       <c r="C27">
         <v>2.144563110197018</v>
@@ -1143,7 +1143,7 @@
         <v>1.885543803387759</v>
       </c>
       <c r="E27">
-        <v>1.1100332497270931</v>
+        <v>1.220566871467393</v>
       </c>
       <c r="F27">
         <v>1.4930146382816569</v>
@@ -1152,15 +1152,15 @@
         <v>1.3126890443063579</v>
       </c>
       <c r="H27">
-        <v>39.691287174431217</v>
+        <v>17.155980228473101</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2.5473050259089458</v>
+        <v>2.1047052714990522</v>
       </c>
       <c r="C28">
         <v>3.9482135598584418</v>
@@ -1169,7 +1169,7 @@
         <v>3.4524354863098892</v>
       </c>
       <c r="E28">
-        <v>1.483329350958128</v>
+        <v>1.2255976699205231</v>
       </c>
       <c r="F28">
         <v>2.2990968877388962</v>
@@ -1178,15 +1178,15 @@
         <v>2.0103987693054211</v>
       </c>
       <c r="H28">
-        <v>11.74450614016647</v>
+        <v>27.518149423309762</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2.8069501795159302</v>
+        <v>2.2814770999823941</v>
       </c>
       <c r="C29">
         <v>4.7577546929757402</v>
@@ -1195,7 +1195,7 @@
         <v>3.656513109673929</v>
       </c>
       <c r="E29">
-        <v>1.6486052110119189</v>
+        <v>1.339979264072289</v>
       </c>
       <c r="F29">
         <v>2.7943706435533842</v>
@@ -1204,15 +1204,15 @@
         <v>2.1475787531723891</v>
       </c>
       <c r="H29">
-        <v>15.58075905821355</v>
+        <v>36.87303433240222</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2.6603368781692498</v>
+        <v>2.4606909878703358</v>
       </c>
       <c r="C30">
         <v>4.4932643642740002</v>
@@ -1221,7 +1221,7 @@
         <v>4.0142721674038429</v>
       </c>
       <c r="E30">
-        <v>1.74641283249792</v>
+        <v>1.615352684576566</v>
       </c>
       <c r="F30">
         <v>2.9496619807690738</v>
@@ -1230,15 +1230,15 @@
         <v>2.6352213074299611</v>
       </c>
       <c r="H30">
-        <v>44.909877037808101</v>
+        <v>58.047435913578262</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2.0218272315504482</v>
+        <v>1.945723483970883</v>
       </c>
       <c r="C31">
         <v>3.1416089982887132</v>
@@ -1247,7 +1247,7 @@
         <v>2.302401242652639</v>
       </c>
       <c r="E31">
-        <v>1.260282302566311</v>
+        <v>1.212843923689622</v>
       </c>
       <c r="F31">
         <v>1.9582851394726359</v>
@@ -1256,15 +1256,15 @@
         <v>1.4351748231705439</v>
       </c>
       <c r="H31">
-        <v>5.0792845898165213</v>
+        <v>6.418758374050836</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2.541338531629334</v>
+        <v>2.2921721406410489</v>
       </c>
       <c r="C32">
         <v>4.2616111597715118</v>
@@ -1273,7 +1273,7 @@
         <v>3.3806243787238039</v>
       </c>
       <c r="E32">
-        <v>1.4468905885569689</v>
+        <v>1.30502971421115</v>
       </c>
       <c r="F32">
         <v>2.4263139296162461</v>
@@ -1282,15 +1282,15 @@
         <v>1.924731213942477</v>
       </c>
       <c r="H32">
-        <v>21.731622675417519</v>
+        <v>32.125939241075812</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1.8397472025408179</v>
+        <v>1.8538805072810829</v>
       </c>
       <c r="C33">
         <v>2.7722635758736569</v>
@@ -1299,7 +1299,7 @@
         <v>2.468983853434537</v>
       </c>
       <c r="E33">
-        <v>1.1351718731827181</v>
+        <v>1.143892489794669</v>
       </c>
       <c r="F33">
         <v>1.7105587289571631</v>
@@ -1308,15 +1308,15 @@
         <v>1.5234272523368519</v>
       </c>
       <c r="H33">
-        <v>23.510443860880692</v>
+        <v>23.113959620747341</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2.299770493551951</v>
+        <v>2.0078634680149081</v>
       </c>
       <c r="C34">
         <v>3.8257648470305932</v>
@@ -1325,7 +1325,7 @@
         <v>3.035501218146694</v>
       </c>
       <c r="E34">
-        <v>1.575562048639453</v>
+        <v>1.3755779056752311</v>
       </c>
       <c r="F34">
         <v>2.6210136693642911</v>
@@ -1334,15 +1334,15 @@
         <v>2.0796077396941022</v>
       </c>
       <c r="H34">
-        <v>14.30558001562248</v>
+        <v>30.840044408210861</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1.461731363665419</v>
+        <v>1.6771866567589271</v>
       </c>
       <c r="C35">
         <v>1.931028704831099</v>
@@ -1351,7 +1351,7 @@
         <v>1.685590052756373</v>
       </c>
       <c r="E35">
-        <v>0.87914917707286477</v>
+        <v>1.008733414182049</v>
       </c>
       <c r="F35">
         <v>1.1614051247414601</v>
@@ -1360,15 +1360,15 @@
         <v>1.0137875840927539</v>
       </c>
       <c r="H35">
-        <v>17.04882232573436</v>
+        <v>2.5182107143605119</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1.8467604106604401</v>
+        <v>1.996541956422238</v>
       </c>
       <c r="C36">
         <v>3.0019510884628131</v>
@@ -1377,7 +1377,7 @@
         <v>2.5108978034791152</v>
       </c>
       <c r="E36">
-        <v>1.1710860019677369</v>
+        <v>1.2660669592062579</v>
       </c>
       <c r="F36">
         <v>1.903626955612169</v>
@@ -1386,15 +1386,15 @@
         <v>1.5922353831347049</v>
       </c>
       <c r="H36">
-        <v>11.40160085140249</v>
+        <v>7.8761058512977709</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2.5919288842385901</v>
+        <v>2.060089730966228</v>
       </c>
       <c r="C37">
         <v>4.1519722997563706</v>
@@ -1403,7 +1403,7 @@
         <v>3.2503464216833962</v>
       </c>
       <c r="E37">
-        <v>1.7161268795876929</v>
+        <v>1.3639939672620609</v>
       </c>
       <c r="F37">
         <v>2.749038104495904</v>
@@ -1412,15 +1412,15 @@
         <v>2.152067865805336</v>
       </c>
       <c r="H37">
-        <v>11.262295577842121</v>
+        <v>32.843897189425398</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>2.2818261865843419</v>
+        <v>2.022538122155535</v>
       </c>
       <c r="C38">
         <v>3.0476583289738719</v>
@@ -1429,7 +1429,7 @@
         <v>2.6930857433936271</v>
       </c>
       <c r="E38">
-        <v>1.281463741718353</v>
+        <v>1.1358486834026189</v>
       </c>
       <c r="F38">
         <v>1.7115517687927131</v>
@@ -1438,15 +1438,15 @@
         <v>1.5124253344920531</v>
       </c>
       <c r="H38">
-        <v>7.7260847874635266</v>
+        <v>14.70206425575584</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>3.2431883502552989</v>
+        <v>2.515886752449803</v>
       </c>
       <c r="C39">
         <v>5.8975976874227873</v>
@@ -1455,7 +1455,7 @@
         <v>4.977949044718482</v>
       </c>
       <c r="E39">
-        <v>1.8910206587150311</v>
+        <v>1.466949590977513</v>
       </c>
       <c r="F39">
         <v>3.4387392464666982</v>
@@ -1464,15 +1464,15 @@
         <v>2.9025155078805072</v>
       </c>
       <c r="H39">
-        <v>20.156401505157969</v>
+        <v>53.514656627729337</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1.565951478119753</v>
+        <v>1.823144413984664</v>
       </c>
       <c r="C40">
         <v>2.3285882750306039</v>
@@ -1481,7 +1481,7 @@
         <v>2.0390789856089921</v>
       </c>
       <c r="E40">
-        <v>1.024635437908118</v>
+        <v>1.1929222591468169</v>
       </c>
       <c r="F40">
         <v>1.523644953391863</v>
@@ -1490,15 +1490,15 @@
         <v>1.334212853042777</v>
       </c>
       <c r="H40">
-        <v>15.377159043009931</v>
+        <v>5.6365056840579966</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>2.6807511162745481</v>
+        <v>2.2361330706324538</v>
       </c>
       <c r="C41">
         <v>4.1569829572467043</v>
@@ -1507,7 +1507,7 @@
         <v>3.2500281996491869</v>
       </c>
       <c r="E41">
-        <v>1.7673882062933139</v>
+        <v>1.4742566711043761</v>
       </c>
       <c r="F41">
         <v>2.7406507854448989</v>
@@ -1516,15 +1516,15 @@
         <v>2.142706003294784</v>
       </c>
       <c r="H41">
-        <v>4.5434950761227952</v>
+        <v>9.2691585869014581</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>2.3336812361215382</v>
+        <v>2.0985724872848319</v>
       </c>
       <c r="C42">
         <v>3.4824828342340761</v>
@@ -1533,7 +1533,7 @@
         <v>2.99207565048042</v>
       </c>
       <c r="E42">
-        <v>1.535559925016986</v>
+        <v>1.380858602854182</v>
       </c>
       <c r="F42">
         <v>2.2914702303973611</v>
@@ -1542,15 +1542,15 @@
         <v>1.9687827927745229</v>
       </c>
       <c r="H42">
-        <v>15.891516976155909</v>
+        <v>26.628738830578179</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1.5019459880795261</v>
+        <v>1.6842001857140909</v>
       </c>
       <c r="C43">
         <v>1.872960949366967</v>
@@ -1559,7 +1559,7 @@
         <v>1.5811718960618</v>
       </c>
       <c r="E43">
-        <v>1.0009886167853019</v>
+        <v>1.1224539548476971</v>
       </c>
       <c r="F43">
         <v>1.2482556662353539</v>
@@ -1568,15 +1568,15 @@
         <v>1.0537896047530111</v>
       </c>
       <c r="H43">
-        <v>5.5936425229624982</v>
+        <v>0.61080004561084755</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1.46442133209847</v>
+        <v>1.655327594290418</v>
       </c>
       <c r="C44">
         <v>1.777245123503844</v>
@@ -1585,7 +1585,7 @@
         <v>1.6213563724068649</v>
       </c>
       <c r="E44">
-        <v>0.91695225611097042</v>
+        <v>1.036488843010982</v>
       </c>
       <c r="F44">
         <v>1.1128279067908911</v>
@@ -1594,15 +1594,15 @@
         <v>1.0152176501744681</v>
       </c>
       <c r="H44">
-        <v>27.0788020220809</v>
+        <v>2.678947568468629</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1.432737269571055</v>
+        <v>1.8119008864737669</v>
       </c>
       <c r="C45">
         <v>2.3574079098304508</v>
@@ -1611,7 +1611,7 @@
         <v>2.0113180719512451</v>
       </c>
       <c r="E45">
-        <v>1.0304694773808729</v>
+        <v>1.303175815416286</v>
       </c>
       <c r="F45">
         <v>1.695521536578585</v>
@@ -1620,15 +1620,15 @@
         <v>1.4466028953590471</v>
       </c>
       <c r="H45">
-        <v>58.176025396864759</v>
+        <v>15.548611687391929</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>3.1470351560301748</v>
+        <v>2.1505433029855401</v>
       </c>
       <c r="C46">
         <v>4.755878561068239</v>
@@ -1637,7 +1637,7 @@
         <v>3.7560825185099809</v>
       </c>
       <c r="E46">
-        <v>1.838249114937403</v>
+        <v>1.2561773629292829</v>
       </c>
       <c r="F46">
         <v>2.7780082274840772</v>
@@ -1646,15 +1646,15 @@
         <v>2.1940064292108659</v>
       </c>
       <c r="H46">
-        <v>6.1749999999999998</v>
+        <v>38.520000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2.007944993007778</v>
+        <v>2.0314782360914658</v>
       </c>
       <c r="C47">
         <v>3.3274861540010949</v>
@@ -1663,7 +1663,7 @@
         <v>2.7210765519909921</v>
       </c>
       <c r="E47">
-        <v>1.080111498891249</v>
+        <v>1.0927704743858011</v>
       </c>
       <c r="F47">
         <v>1.789917587311157</v>
@@ -1672,15 +1672,15 @@
         <v>1.463718420277182</v>
       </c>
       <c r="H47">
-        <v>27.314</v>
+        <v>27.039000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2.789985223674194</v>
+        <v>1.912284240149174</v>
       </c>
       <c r="C48">
         <v>4.0016028666262651</v>
@@ -1689,7 +1689,7 @@
         <v>3.2456805457574012</v>
       </c>
       <c r="E48">
-        <v>1.3628074370366789</v>
+        <v>0.93408207401590793</v>
       </c>
       <c r="F48">
         <v>1.954639078526675</v>
@@ -1698,15 +1698,15 @@
         <v>1.5853982123168351</v>
       </c>
       <c r="H48">
-        <v>2.5649999999999999</v>
+        <v>17.382000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1.663651474298276</v>
+        <v>1.7787273803403889</v>
       </c>
       <c r="C49">
         <v>2.4154294359416171</v>
@@ -1715,7 +1715,7 @@
         <v>2.0180387721275861</v>
       </c>
       <c r="E49">
-        <v>0.88601439758668832</v>
+        <v>0.94730061717282588</v>
       </c>
       <c r="F49">
         <v>1.2863903826380809</v>
@@ -1724,15 +1724,15 @@
         <v>1.074751193153231</v>
       </c>
       <c r="H49">
-        <v>14.791</v>
+        <v>9.1929999999999996</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2.535388201574631</v>
+        <v>2.1154793057291261</v>
       </c>
       <c r="C50">
         <v>3.51994252220869</v>
@@ -1741,7 +1741,7 @@
         <v>2.8984196422513668</v>
       </c>
       <c r="E50">
-        <v>1.462234069556106</v>
+        <v>1.2200600729927209</v>
       </c>
       <c r="F50">
         <v>2.0300559400158962</v>
@@ -1750,15 +1750,15 @@
         <v>1.6716051396541209</v>
       </c>
       <c r="H50">
-        <v>2.9239999999999999</v>
+        <v>6.7510000000000003</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2.3367035584192739</v>
+        <v>2.0355083228031869</v>
       </c>
       <c r="C51">
         <v>3.39750151591578</v>
@@ -1767,7 +1767,7 @@
         <v>2.6535827088602488</v>
       </c>
       <c r="E51">
-        <v>1.383848656520273</v>
+        <v>1.2054740310116829</v>
       </c>
       <c r="F51">
         <v>2.0120771808582281</v>
@@ -1776,15 +1776,15 @@
         <v>1.5715116508427851</v>
       </c>
       <c r="H51">
-        <v>11.237</v>
+        <v>24.916</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2.1885782397424509</v>
+        <v>1.8469691369867809</v>
       </c>
       <c r="C52">
         <v>2.9471314172714251</v>
@@ -1793,7 +1793,7 @@
         <v>2.3473734012188432</v>
       </c>
       <c r="E52">
-        <v>1.0719580874147261</v>
+        <v>0.90463912491031906</v>
       </c>
       <c r="F52">
         <v>1.4434948223692019</v>
@@ -1802,15 +1802,15 @@
         <v>1.149735410836793</v>
       </c>
       <c r="H52">
-        <v>4.3810000000000002</v>
+        <v>26.257000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2.0779520852749251</v>
+        <v>2.031563364729907</v>
       </c>
       <c r="C53">
         <v>3.3640070875621451</v>
@@ -1819,7 +1819,7 @@
         <v>2.7342952504677851</v>
       </c>
       <c r="E53">
-        <v>1.042123038188445</v>
+        <v>1.018858423602468</v>
       </c>
       <c r="F53">
         <v>1.68709823071493</v>
@@ -1828,15 +1828,15 @@
         <v>1.3712886326465621</v>
       </c>
       <c r="H53">
-        <v>23.908000000000001</v>
+        <v>28.23</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2.1016043374000799</v>
+        <v>1.971496126932063</v>
       </c>
       <c r="C54">
         <v>3.5745614738330009</v>
@@ -1845,7 +1845,7 @@
         <v>2.812099852510848</v>
       </c>
       <c r="E54">
-        <v>1.204193101857463</v>
+        <v>1.1296427182517501</v>
       </c>
       <c r="F54">
         <v>2.048179189751886</v>
@@ -1854,41 +1854,41 @@
         <v>1.6112981800928321</v>
       </c>
       <c r="H54">
-        <v>23.207999999999998</v>
+        <v>36.624000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2.669598059647655</v>
+        <v>2.463960053848119</v>
       </c>
       <c r="C55">
-        <v>4.6901831272357697</v>
+        <v>4.6165808954570231</v>
       </c>
       <c r="D55">
         <v>3.642130604773568</v>
       </c>
       <c r="E55">
-        <v>1.4555988225214691</v>
+        <v>1.3434746628466701</v>
       </c>
       <c r="F55">
-        <v>2.5573231943072008</v>
+        <v>2.5171915641822382</v>
       </c>
       <c r="G55">
         <v>1.9858723677966419</v>
       </c>
       <c r="H55">
-        <v>6.7679999999999998</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>3.7899083184922739</v>
+        <v>2.266645658455698</v>
       </c>
       <c r="C56">
         <v>6.1241322762278054</v>
@@ -1897,7 +1897,7 @@
         <v>4.2673049744901261</v>
       </c>
       <c r="E56">
-        <v>2.1340811525721208</v>
+        <v>1.27633846857649</v>
       </c>
       <c r="F56">
         <v>3.4484726722243542</v>
@@ -1906,15 +1906,15 @@
         <v>2.4029011662106781</v>
       </c>
       <c r="H56">
-        <v>7.2160000000000002</v>
+        <v>107.068</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1.9947599797855651</v>
+        <v>1.995488279058121</v>
       </c>
       <c r="C57">
         <v>2.8574350041061201</v>
@@ -1923,7 +1923,7 @@
         <v>2.5454309810372928</v>
       </c>
       <c r="E57">
-        <v>1.1065708233276299</v>
+        <v>1.106974839216172</v>
       </c>
       <c r="F57">
         <v>1.5851301595888281</v>
@@ -1932,15 +1932,15 @@
         <v>1.412049411936211</v>
       </c>
       <c r="H57">
-        <v>72.251999999999995</v>
+        <v>75.322000000000003</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>1.7703420448809439</v>
+        <v>1.9000554049890299</v>
       </c>
       <c r="C58">
         <v>3.108712123863663</v>
@@ -1949,7 +1949,7 @@
         <v>2.4858831934227341</v>
       </c>
       <c r="E58">
-        <v>0.98981607088994672</v>
+        <v>1.062340117198044</v>
       </c>
       <c r="F58">
         <v>1.7381122641628299</v>
@@ -1958,15 +1958,15 @@
         <v>1.389882335066225</v>
       </c>
       <c r="H58">
-        <v>37.357999999999997</v>
+        <v>31.015999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1.897382439516029</v>
+        <v>1.952455506324644</v>
       </c>
       <c r="C59">
         <v>2.8016055898913632</v>
@@ -1975,7 +1975,7 @@
         <v>2.101073274421895</v>
       </c>
       <c r="E59">
-        <v>1.053616758439387</v>
+        <v>1.084198840849198</v>
       </c>
       <c r="F59">
         <v>1.555732011939529</v>
@@ -1984,15 +1984,15 @@
         <v>1.1667263101711249</v>
       </c>
       <c r="H59">
-        <v>3.1429999999999998</v>
+        <v>2.7080000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1.6540231374477969</v>
+        <v>1.8070936107102999</v>
       </c>
       <c r="C60">
         <v>2.3732688460907392</v>
@@ -2001,7 +2001,7 @@
         <v>1.896282224368409</v>
       </c>
       <c r="E60">
-        <v>0.95308963352783538</v>
+        <v>1.0412926809717811</v>
       </c>
       <c r="F60">
         <v>1.3675370577184811</v>
@@ -2010,15 +2010,15 @@
         <v>1.0926853980273761</v>
       </c>
       <c r="H60">
-        <v>7.5270000000000001</v>
+        <v>3.9969999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>3.586159440219276</v>
+        <v>2.3753297661288348</v>
       </c>
       <c r="C61">
         <v>5.8836918359919137</v>
@@ -2027,7 +2027,7 @@
         <v>3.940399543003414</v>
       </c>
       <c r="E61">
-        <v>1.8224625036710591</v>
+        <v>1.2071268734105289</v>
       </c>
       <c r="F61">
         <v>2.9900532681266241</v>
@@ -2036,15 +2036,15 @@
         <v>2.0024849804690219</v>
       </c>
       <c r="H61">
-        <v>3.6160000000000001</v>
+        <v>15.249000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1.585309634508024</v>
+        <v>1.7264547998724751</v>
       </c>
       <c r="C62">
         <v>1.9819138551998661</v>
@@ -2053,7 +2053,7 @@
         <v>1.5887595943656301</v>
       </c>
       <c r="E62">
-        <v>0.86805458270354652</v>
+        <v>0.94534024662312821</v>
       </c>
       <c r="F62">
         <v>1.085219800019571</v>
@@ -2062,15 +2062,15 @@
         <v>0.86994364803144875</v>
       </c>
       <c r="H62">
-        <v>1.768</v>
+        <v>0.58499999999999996</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>2.132952611206024</v>
+        <v>1.9971581837042549</v>
       </c>
       <c r="C63">
         <v>3.3995430226048642</v>
@@ -2079,7 +2079,7 @@
         <v>2.4557571080208671</v>
       </c>
       <c r="E63">
-        <v>1.0916894010606391</v>
+        <v>1.0221869955932441</v>
       </c>
       <c r="F63">
         <v>1.7399566529182979</v>
@@ -2088,15 +2088,15 @@
         <v>1.2569074401000619</v>
       </c>
       <c r="H63">
-        <v>7.7549999999999999</v>
+        <v>12.281000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1.88902344447704</v>
+        <v>2.025673820625975</v>
       </c>
       <c r="C64">
         <v>2.9452597499840798</v>
@@ -2105,7 +2105,7 @@
         <v>1.928522853234544</v>
       </c>
       <c r="E64">
-        <v>0.98002075796688348</v>
+        <v>1.050914639989091</v>
       </c>
       <c r="F64">
         <v>1.5279935783898291</v>
@@ -2114,15 +2114,15 @@
         <v>1.0005129549393199</v>
       </c>
       <c r="H64">
-        <v>1.135</v>
+        <v>0.84599999999999997</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>2.0325683286920628</v>
+        <v>1.958178037067803</v>
       </c>
       <c r="C65">
         <v>3.0602001390454139</v>
@@ -2131,7 +2131,7 @@
         <v>2.495890385401546</v>
       </c>
       <c r="E65">
-        <v>1.228673074604784</v>
+        <v>1.1837046732770209</v>
       </c>
       <c r="F65">
         <v>1.8498691830775651</v>
@@ -2140,15 +2140,15 @@
         <v>1.508747957162742</v>
       </c>
       <c r="H65">
-        <v>47.106999999999999</v>
+        <v>62.558</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>2.4715941537554249</v>
+        <v>1.8925209703689401</v>
       </c>
       <c r="C66">
         <v>3.4356699083750999</v>
@@ -2157,7 +2157,7 @@
         <v>2.5872075603077689</v>
       </c>
       <c r="E66">
-        <v>1.359048034357909</v>
+        <v>1.0406348068322639</v>
       </c>
       <c r="F66">
         <v>1.889161466329411</v>
@@ -2166,15 +2166,15 @@
         <v>1.4226200300602161</v>
       </c>
       <c r="H66">
-        <v>1.5209999999999999</v>
+        <v>10.481</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>2.4675239004163729</v>
+        <v>2.111063429111308</v>
       </c>
       <c r="C67">
         <v>3.830090951392696</v>
@@ -2183,7 +2183,7 @@
         <v>3.118796701897117</v>
       </c>
       <c r="E67">
-        <v>1.4553526338700371</v>
+        <v>1.2451112312652459</v>
       </c>
       <c r="F67">
         <v>2.2589985665916208</v>
@@ -2192,15 +2192,15 @@
         <v>1.8394751896203489</v>
       </c>
       <c r="H67">
-        <v>21.483000000000001</v>
+        <v>60.017000000000003</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>3.3458601670310482</v>
+        <v>2.1550554289118171</v>
       </c>
       <c r="C68">
         <v>5.843987561036097</v>
@@ -2209,7 +2209,7 @@
         <v>4.2110008790884939</v>
       </c>
       <c r="E68">
-        <v>1.863455589336295</v>
+        <v>1.2002444465271001</v>
       </c>
       <c r="F68">
         <v>3.254771789906497</v>
@@ -2218,15 +2218,15 @@
         <v>2.3452902192862881</v>
       </c>
       <c r="H68">
-        <v>3.274</v>
+        <v>18.762</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1.5663421543477281</v>
+        <v>1.7546989573846179</v>
       </c>
       <c r="C69">
         <v>2.0569144445097032</v>
@@ -2235,7 +2235,7 @@
         <v>1.494576780471891</v>
       </c>
       <c r="E69">
-        <v>0.90373134071739603</v>
+        <v>1.0124074340404781</v>
       </c>
       <c r="F69">
         <v>1.1867764929379889</v>
@@ -2244,15 +2244,15 @@
         <v>0.86232492298812013</v>
       </c>
       <c r="H69">
-        <v>0.77600000000000002</v>
+        <v>0.23799999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>2.5726863852835882</v>
+        <v>2.3113629591705398</v>
       </c>
       <c r="C70">
         <v>3.759625019400481</v>
@@ -2261,7 +2261,7 @@
         <v>2.9813520724217608</v>
       </c>
       <c r="E70">
-        <v>1.335197701642737</v>
+        <v>1.1995735385393571</v>
       </c>
       <c r="F70">
         <v>1.9512066117568061</v>
@@ -2270,15 +2270,15 @@
         <v>1.547290978665693</v>
       </c>
       <c r="H70">
-        <v>11.666</v>
+        <v>17.206</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>3.828883071983074</v>
+        <v>2.343697861432442</v>
       </c>
       <c r="C71">
         <v>6.5490100340811761</v>
@@ -2287,7 +2287,7 @@
         <v>3.9875222549365752</v>
       </c>
       <c r="E71">
-        <v>1.964867703920828</v>
+        <v>1.2027152955840581</v>
       </c>
       <c r="F71">
         <v>3.3607550992553352</v>
@@ -2296,15 +2296,15 @@
         <v>2.046276564233787</v>
       </c>
       <c r="H71">
-        <v>1.24</v>
+        <v>6.4640000000000004</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>3.3898576151283031</v>
+        <v>2.36680204197522</v>
       </c>
       <c r="C72">
         <v>5.2585744488884067</v>
@@ -2313,7 +2313,7 @@
         <v>4.3336291672475369</v>
       </c>
       <c r="E72">
-        <v>1.765080604621639</v>
+        <v>1.2323810771949579</v>
       </c>
       <c r="F72">
         <v>2.7381113962630379</v>
@@ -2322,15 +2322,15 @@
         <v>2.256497369268335</v>
       </c>
       <c r="H72">
-        <v>8.7100000000000009</v>
+        <v>32.42</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2.483440444984506</v>
+        <v>2.2450487561010561</v>
       </c>
       <c r="C73">
         <v>3.66064168689417</v>
@@ -2339,7 +2339,7 @@
         <v>2.966982716565993</v>
       </c>
       <c r="E73">
-        <v>1.442425016584967</v>
+        <v>1.303963014612709</v>
       </c>
       <c r="F73">
         <v>2.1261637888654459</v>
@@ -2348,7 +2348,7 @@
         <v>1.723274702557529</v>
       </c>
       <c r="H73">
-        <v>14.500999999999999</v>
+        <v>21.677</v>
       </c>
     </row>
   </sheetData>
